--- a/Distribution/Connectivity_Matrices_Averaged/PCC/Distance_Matrix_PCC.xlsx
+++ b/Distribution/Connectivity_Matrices_Averaged/PCC/Distance_Matrix_PCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\fc_channelselection\Distribution\Distance_Matrices\PCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\Distribution\Connectivity_Matrices_Averaged\PCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059EAAEA-235C-498E-8B86-C361D513FD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB3BF0B-9C62-4E0A-BA0F-4C03B9B9618B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha" sheetId="1" r:id="rId1"/>
@@ -35364,7 +35364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F9D77C-ED5C-4930-8B34-0CCF5F247FB1}">
   <dimension ref="A1:BJ62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -47034,7 +47034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4765D87B-B31C-4DF4-853F-C158C2EEE2E2}">
   <dimension ref="A1:BJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
